--- a/data/trans_orig/CoTrAQ_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>194849</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>179122</v>
+        <v>177833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>208921</v>
+        <v>208134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7298235333579702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6709159262822942</v>
+        <v>0.6660868361610472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7825309756878696</v>
+        <v>0.7795841057666534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -763,19 +763,19 @@
         <v>110500</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99632</v>
+        <v>99111</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122361</v>
+        <v>121870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.714917352720204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6446018120935003</v>
+        <v>0.6412348575378238</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7916606804410146</v>
+        <v>0.7884780290476046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>293</v>
@@ -784,19 +784,19 @@
         <v>305349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>287259</v>
+        <v>285057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>324316</v>
+        <v>323160</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7243580558973115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6814450164080791</v>
+        <v>0.6762203962702047</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7693524593156923</v>
+        <v>0.7666107631424643</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>72132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58060</v>
+        <v>58847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87859</v>
+        <v>89148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2701764666420297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2174690243121299</v>
+        <v>0.2204158942333466</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3290840737177047</v>
+        <v>0.3339131638389525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -834,19 +834,19 @@
         <v>44063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32202</v>
+        <v>32693</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54931</v>
+        <v>55452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.285082647279796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2083393195589853</v>
+        <v>0.2115219709523954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3553981879064996</v>
+        <v>0.3587651424621759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -855,19 +855,19 @@
         <v>116195</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97228</v>
+        <v>98384</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134285</v>
+        <v>136487</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2756419441026886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2306475406843076</v>
+        <v>0.2333892368575355</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3185549835919208</v>
+        <v>0.3237796037297952</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>289981</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>272568</v>
+        <v>268438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>308672</v>
+        <v>306216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7282971366014913</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6845635016736392</v>
+        <v>0.6741922296329086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.77523979650658</v>
+        <v>0.7690724554107181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>155</v>
@@ -980,19 +980,19 @@
         <v>172435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157058</v>
+        <v>156473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187644</v>
+        <v>188354</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.66873822372448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6091001386382431</v>
+        <v>0.606832222560451</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.727719976835516</v>
+        <v>0.7304733849380943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -1001,19 +1001,19 @@
         <v>462416</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>437715</v>
+        <v>436683</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>485594</v>
+        <v>486767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7048870144509131</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6672327381266516</v>
+        <v>0.6656602727775807</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7402181466233576</v>
+        <v>0.7420051646300123</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>108182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>89491</v>
+        <v>91947</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125595</v>
+        <v>129725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2717028633985087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.22476020349342</v>
+        <v>0.2309275445892817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3154364983263607</v>
+        <v>0.325807770367091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -1051,19 +1051,19 @@
         <v>85417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70208</v>
+        <v>69498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100794</v>
+        <v>101379</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3312617762755199</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2722800231644839</v>
+        <v>0.2695266150619054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3908998613617569</v>
+        <v>0.3931677774395488</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>175</v>
@@ -1072,19 +1072,19 @@
         <v>193599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>170421</v>
+        <v>169248</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>218300</v>
+        <v>219332</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2951129855490869</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2597818533766423</v>
+        <v>0.2579948353699876</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3327672618733484</v>
+        <v>0.3343397272224194</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>216164</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198482</v>
+        <v>200557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231402</v>
+        <v>234560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7048254245397966</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6471690105384368</v>
+        <v>0.6539349130637773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7545107731452936</v>
+        <v>0.7648079200041299</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -1197,19 +1197,19 @@
         <v>132460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118392</v>
+        <v>117465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148212</v>
+        <v>145553</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6476678703564388</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5788779525663695</v>
+        <v>0.5743478556879698</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7246849043408036</v>
+        <v>0.7116865265492065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>315</v>
@@ -1218,19 +1218,19 @@
         <v>348625</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>326087</v>
+        <v>324359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>370325</v>
+        <v>370911</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.681958537204583</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6378711644498929</v>
+        <v>0.6344914919944999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7244069395259418</v>
+        <v>0.7255529104720367</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>90528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75290</v>
+        <v>72132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108210</v>
+        <v>106135</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2951745754602034</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2454892268547061</v>
+        <v>0.2351920799958698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.352830989461563</v>
+        <v>0.3460650869362227</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -1268,19 +1268,19 @@
         <v>72059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56307</v>
+        <v>58966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86127</v>
+        <v>87054</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3523321296435612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2753150956591964</v>
+        <v>0.2883134734507932</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4211220474336301</v>
+        <v>0.42565214431203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>146</v>
@@ -1289,19 +1289,19 @@
         <v>162586</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>140886</v>
+        <v>140300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185124</v>
+        <v>186852</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.318041462795417</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.275593060474058</v>
+        <v>0.2744470895279632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3621288355501069</v>
+        <v>0.3655085080054999</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>276668</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>257494</v>
+        <v>257182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>293527</v>
+        <v>295588</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6847552435840571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6373009869513154</v>
+        <v>0.6365273064768036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7264826563817036</v>
+        <v>0.7315826487536893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>168</v>
@@ -1414,19 +1414,19 @@
         <v>174757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157777</v>
+        <v>157206</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191790</v>
+        <v>190768</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6135878818542116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5539701311565968</v>
+        <v>0.5519668838525453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6733940724371303</v>
+        <v>0.6698072263645829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>435</v>
@@ -1435,19 +1435,19 @@
         <v>451425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>424550</v>
+        <v>425151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>474841</v>
+        <v>476527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6553304773919775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6163156852829325</v>
+        <v>0.6171884783785795</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6893233636266319</v>
+        <v>0.6917714783097412</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>127371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110512</v>
+        <v>108451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146545</v>
+        <v>146857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3152447564159428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2735173436182963</v>
+        <v>0.2684173512463107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3626990130486845</v>
+        <v>0.3634726935231963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1485,19 +1485,19 @@
         <v>110054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93021</v>
+        <v>94043</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127034</v>
+        <v>127605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3864121181457884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3266059275628697</v>
+        <v>0.3301927736354171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4460298688434033</v>
+        <v>0.4480331161474547</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>228</v>
@@ -1506,19 +1506,19 @@
         <v>237426</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>214010</v>
+        <v>212324</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>264301</v>
+        <v>263700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3446695226080225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3106766363733679</v>
+        <v>0.3082285216902588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3836843147170673</v>
+        <v>0.3828115216214204</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>977663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>546</v>
@@ -1631,19 +1631,19 @@
         <v>590152</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1467</v>
@@ -1652,19 +1652,19 @@
         <v>1567815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>398213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>363820</v>
+        <v>365362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>433212</v>
+        <v>433754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2894251821981535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2644278577024006</v>
+        <v>0.2655487443565437</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3148629711980049</v>
+        <v>0.3152568326362643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>286</v>
@@ -1702,19 +1702,19 @@
         <v>311593</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>282950</v>
+        <v>281744</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>342444</v>
+        <v>341111</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3455442571823424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3137803527508142</v>
+        <v>0.312442865836102</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3797567787887939</v>
+        <v>0.3782784690918711</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>658</v>
@@ -1723,19 +1723,19 @@
         <v>709806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>662111</v>
+        <v>666414</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>755504</v>
+        <v>761652</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3116435876612533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2907029917106331</v>
+        <v>0.2925921065120196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3317077310862672</v>
+        <v>0.3344070328302141</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>140306</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124651</v>
+        <v>125268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>156912</v>
+        <v>155892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5814075524992177</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5165352959385668</v>
+        <v>0.5190908016861076</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6502229601509313</v>
+        <v>0.6459944368256992</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -2088,19 +2088,19 @@
         <v>79663</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67649</v>
+        <v>67905</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92421</v>
+        <v>91688</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4850641462789886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4119134543774786</v>
+        <v>0.4134709311190158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5627447922997607</v>
+        <v>0.5582860231404048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -2109,19 +2109,19 @@
         <v>219969</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>200151</v>
+        <v>201216</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>240683</v>
+        <v>240432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5423924266951876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4935258664898854</v>
+        <v>0.4961529783860559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5934696144718067</v>
+        <v>0.5928495664772083</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>101015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84409</v>
+        <v>85429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>116670</v>
+        <v>116053</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4185924475007823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3497770398490688</v>
+        <v>0.3540055631743009</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4834647040614332</v>
+        <v>0.4809091983138925</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -2159,19 +2159,19 @@
         <v>84569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71811</v>
+        <v>72544</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96583</v>
+        <v>96327</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5149358537210114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4372552077002393</v>
+        <v>0.4417139768595953</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5880865456225215</v>
+        <v>0.5865290688809843</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>184</v>
@@ -2180,19 +2180,19 @@
         <v>185584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>164870</v>
+        <v>165121</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>205402</v>
+        <v>204337</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4576075733048124</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4065303855281932</v>
+        <v>0.4071504335227916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5064741335101145</v>
+        <v>0.5038470216139441</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>233539</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>210761</v>
+        <v>211282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253847</v>
+        <v>254765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.565134228034037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5100130553304811</v>
+        <v>0.5112737831642228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6142745962189584</v>
+        <v>0.6164969200290756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -2305,19 +2305,19 @@
         <v>141194</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123923</v>
+        <v>123612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156786</v>
+        <v>156250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5176670225756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.454345185580383</v>
+        <v>0.4532053713143285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5748322041897491</v>
+        <v>0.5728683512613489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>343</v>
@@ -2326,19 +2326,19 @@
         <v>374734</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>344656</v>
+        <v>349782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>399658</v>
+        <v>402533</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5462613554702245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5024154995920963</v>
+        <v>0.5098891321900102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5825941566234376</v>
+        <v>0.5867854411928962</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>179707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>159399</v>
+        <v>158481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>202485</v>
+        <v>201964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.434865771965963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3857254037810416</v>
+        <v>0.3835030799709244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4899869446695189</v>
+        <v>0.4887262168357773</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -2376,19 +2376,19 @@
         <v>131557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115965</v>
+        <v>116501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>148828</v>
+        <v>149139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4823329774244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4251677958102509</v>
+        <v>0.4271316487386511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5456548144196171</v>
+        <v>0.5467946286856714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>294</v>
@@ -2397,19 +2397,19 @@
         <v>311263</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>286339</v>
+        <v>283464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>341341</v>
+        <v>336215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4537386445297755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4174058433765626</v>
+        <v>0.4132145588071039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4975845004079039</v>
+        <v>0.4901108678099899</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>146936</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>126987</v>
+        <v>128975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165079</v>
+        <v>168934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4050389123002934</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3500487890850189</v>
+        <v>0.3555287653350397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4550520843513611</v>
+        <v>0.4656774996666372</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -2522,19 +2522,19 @@
         <v>111393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94763</v>
+        <v>96189</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127163</v>
+        <v>128615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4132958839534138</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3515955370906884</v>
+        <v>0.356886271247642</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4718055001231605</v>
+        <v>0.4771915098575875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -2543,19 +2543,19 @@
         <v>258329</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>232164</v>
+        <v>232670</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>283595</v>
+        <v>285103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4085585622303646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3671772709075256</v>
+        <v>0.3679769087096434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4485174050043547</v>
+        <v>0.4509029919822606</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>215834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>197691</v>
+        <v>193836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>235783</v>
+        <v>233795</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5949610876997066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5449479156486388</v>
+        <v>0.5343225003333628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6499512109149811</v>
+        <v>0.6444712346649604</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -2593,19 +2593,19 @@
         <v>158131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142361</v>
+        <v>140909</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174761</v>
+        <v>173335</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5867041160465861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5281944998768395</v>
+        <v>0.5228084901424125</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6484044629093116</v>
+        <v>0.6431137287523581</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>346</v>
@@ -2614,19 +2614,19 @@
         <v>373965</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>348699</v>
+        <v>347191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>400130</v>
+        <v>399624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5914414377696354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5514825949956453</v>
+        <v>0.5490970080177398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6328227290924745</v>
+        <v>0.6320230912903569</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>248789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>229966</v>
+        <v>229160</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267142</v>
+        <v>269345</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6235303818233847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5763545539752829</v>
+        <v>0.5743351092149158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6695277095237786</v>
+        <v>0.6750473043690687</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>171</v>
@@ -2739,19 +2739,19 @@
         <v>182178</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163690</v>
+        <v>163501</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>198585</v>
+        <v>200797</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5597310804358356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5029272642029879</v>
+        <v>0.5023470806562147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6101400509061622</v>
+        <v>0.6169374848159667</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>414</v>
@@ -2760,19 +2760,19 @@
         <v>430967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>402425</v>
+        <v>403823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>455158</v>
+        <v>458887</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5948682058919282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5554711806695661</v>
+        <v>0.5574005025237726</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6282597480666533</v>
+        <v>0.6334062429155592</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>150212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131859</v>
+        <v>129656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169035</v>
+        <v>169841</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3764696181766153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3304722904762213</v>
+        <v>0.3249526956309313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.423645446024717</v>
+        <v>0.4256648907850841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -2810,19 +2810,19 @@
         <v>143296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126889</v>
+        <v>124677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161784</v>
+        <v>161973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4402689195641644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3898599490938378</v>
+        <v>0.3830625151840334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4970727357970117</v>
+        <v>0.4976529193437854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>284</v>
@@ -2831,19 +2831,19 @@
         <v>293508</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269317</v>
+        <v>265588</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>322050</v>
+        <v>320652</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4051317941080717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3717402519333468</v>
+        <v>0.3665937570844407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4445288193304339</v>
+        <v>0.4425994974762274</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>769570</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>498</v>
@@ -2956,19 +2956,19 @@
         <v>514429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1217</v>
@@ -2977,19 +2977,19 @@
         <v>1283998</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5244409802768321</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>646767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>607493</v>
+        <v>610998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>682954</v>
+        <v>689230</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4566476881107582</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4289183388126102</v>
+        <v>0.4313934183143039</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4821972040575991</v>
+        <v>0.4866284555824158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>510</v>
@@ -3027,19 +3027,19 @@
         <v>517553</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>487672</v>
+        <v>484154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>550978</v>
+        <v>549169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5015137588781524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4725583142435112</v>
+        <v>0.4691495103933734</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5339029316886295</v>
+        <v>0.5321495928987855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1108</v>
@@ -3048,19 +3048,19 @@
         <v>1164320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1114323</v>
+        <v>1116838</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1214208</v>
+        <v>1211571</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4755590197231679</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.455138109209918</v>
+        <v>0.4561654047919837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.495935477821412</v>
+        <v>0.4948586857866573</v>
       </c>
     </row>
     <row r="18">
